--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6150,7 +6151,6 @@
           <t>新疆前海联合润丰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>88.29</t>
@@ -6166,6 +6166,4660 @@
       </c>
       <c r="H77" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>445.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>183.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>162.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>149.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1842</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0562</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8473</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4217</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3873</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010967</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3259</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2764</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0859</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0427</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>37.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6491</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5896</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5721</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010968</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博道嘉丰混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10825,4 +10826,2824 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>129.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8895</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>145.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1869</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6878</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4651</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2501</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0399</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0292</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9527</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9219</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6905</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4021</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>66.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13589,7 +13590,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>91.77</t>
@@ -13641,6 +13641,106 @@
       </c>
       <c r="H74" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.94</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13654,7 +13655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13665,17 +13666,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13685,14 +13706,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.3</v>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4673</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13701,14 +13744,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.17</v>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -13717,14 +13782,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.43</v>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -13733,13 +13820,4777 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1677</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9955</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9787</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9604</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8095</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7914</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>52.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7497</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3569</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3252</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2709</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1733</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0377</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9657</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7253</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3882</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>72</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>34.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18489,7 +18490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18500,17 +18501,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18520,14 +18541,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.08</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18536,14 +18579,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.3</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -18552,14 +18617,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>83.17</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -18568,14 +18655,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>76</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.43</v>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -18584,13 +18693,4563 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>125.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3332</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0811</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7487</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6241</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>51.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4548</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4449</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1939</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0177</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0080</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0080</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9561</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7788</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6672</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6249</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012848</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012849</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>大成悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>72</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>34.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23132,7 +23133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23143,17 +23144,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23163,14 +23184,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>121</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.59999999999999</v>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -23179,14 +23222,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>126</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.08</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0973</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -23195,14 +23260,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.3</v>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -23211,14 +23298,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>121</v>
-      </c>
-      <c r="D5" t="n">
-        <v>83.17</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -23227,14 +23336,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>76</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.43</v>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2984</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -23243,13 +23374,7606 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7779</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5901</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5016</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3389</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2549</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9446</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>43.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7569</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7512</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7420</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7075</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6443</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4943</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012848</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001265</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>012849</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>大成悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.59999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>76</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>34.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600600-青岛啤酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D2" t="n">
-        <v>77.97</v>
+        <v>95.95999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="D3" t="n">
-        <v>70.59999999999999</v>
+        <v>77.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D4" t="n">
-        <v>74.08</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
-        <v>56.3</v>
+        <v>74.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>83.17</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D7" t="n">
-        <v>32.43</v>
+        <v>83.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>72</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>34.94</v>
       </c>
     </row>
@@ -600,6 +617,8967 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H236"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>107.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3800</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高质量混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8887</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5849</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5806</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5787</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5378</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3336</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2091</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1251</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0093</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9802</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9344</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7499</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7327</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6983</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008317</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信睿盈混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6676</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6606</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6366</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5864</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014794</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014957</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富消费成长股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012214</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012848</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银新得益混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014958</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华富消费成长股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014795</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博道消费智航股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000556</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011616</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>东方红新海混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>65.65</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004881</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中银量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011558</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>000557</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159862</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>银华中证食品ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011559</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>天弘宁弘六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>012215</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>民生加银核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>012849</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>大成悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>010311</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>中银量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>014813</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>016182</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>-0.1149</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8306,7 +17284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12948,7 +21926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17782,7 +26760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20601,7 +29579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25255,7 +34233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28192,7 +37170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
